--- a/KF_disseration_stimuli(AutoRecovered).xlsx
+++ b/KF_disseration_stimuli(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kayleefernandez/Desktop/Dino_V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC96CF9-A98C-E043-AABE-62A71D3A8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D43389-269D-C04C-B23F-2528591E4358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="3" xr2:uid="{8FBF87D2-5B4E-E842-95D3-7AAD54291CBB}"/>
+    <workbookView xWindow="3280" yWindow="760" windowWidth="26840" windowHeight="18580" activeTab="3" xr2:uid="{8FBF87D2-5B4E-E842-95D3-7AAD54291CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Eyetracking verbs" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="953">
   <si>
     <t>Verb</t>
   </si>
@@ -2195,6 +2195,15 @@
     <t>16 rounds : 16 items drawn from complete stimulus set</t>
   </si>
   <si>
+    <t>El padre salvá al perro</t>
+  </si>
+  <si>
+    <t>El padre salvó al perro</t>
+  </si>
+  <si>
+    <t>El padre salvo al perro</t>
+  </si>
+  <si>
     <t xml:space="preserve">La madre filtra el agua </t>
   </si>
   <si>
@@ -2207,6 +2216,12 @@
     <t>La madre filtro el agua</t>
   </si>
   <si>
+    <t>El hombre plantá el árbol</t>
+  </si>
+  <si>
+    <t>El hombre planto el árbol</t>
+  </si>
+  <si>
     <t>El vecino cambia la clave.</t>
   </si>
   <si>
@@ -2615,18 +2630,6 @@
     <t>Eyetracking</t>
   </si>
   <si>
-    <t>busca</t>
-  </si>
-  <si>
-    <t>buscá</t>
-  </si>
-  <si>
-    <t>buscó</t>
-  </si>
-  <si>
-    <t>busco</t>
-  </si>
-  <si>
     <t>corre</t>
   </si>
   <si>
@@ -2639,39 +2642,6 @@
     <t>El padre salva al perro</t>
   </si>
   <si>
-    <t>salvá al perro</t>
-  </si>
-  <si>
-    <t>salvó al perro</t>
-  </si>
-  <si>
-    <t>salvo al perro</t>
-  </si>
-  <si>
-    <t>limpia el suelo</t>
-  </si>
-  <si>
-    <t>limpiá el suelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limpió el suelo </t>
-  </si>
-  <si>
-    <t>limpo el suelo</t>
-  </si>
-  <si>
-    <t>planta el árbol</t>
-  </si>
-  <si>
-    <t>plantó el árbol</t>
-  </si>
-  <si>
-    <t>plantá el árbol</t>
-  </si>
-  <si>
-    <t>planto el árbol</t>
-  </si>
-  <si>
     <t>bebe</t>
   </si>
   <si>
@@ -3021,6 +2991,111 @@
   </si>
   <si>
     <t>seca la ropa</t>
+  </si>
+  <si>
+    <t>secá la ropa</t>
+  </si>
+  <si>
+    <t>seco la ropa</t>
+  </si>
+  <si>
+    <t>secó la ropa</t>
+  </si>
+  <si>
+    <t>rompe</t>
+  </si>
+  <si>
+    <t>rompé</t>
+  </si>
+  <si>
+    <t>rompió</t>
+  </si>
+  <si>
+    <t>rompio</t>
+  </si>
+  <si>
+    <t>pasa la sal</t>
+  </si>
+  <si>
+    <t>pasá la sal</t>
+  </si>
+  <si>
+    <t>pasó la sal</t>
+  </si>
+  <si>
+    <t>paso la sal</t>
+  </si>
+  <si>
+    <t>paga la cuenta</t>
+  </si>
+  <si>
+    <t>pagá la cuenta</t>
+  </si>
+  <si>
+    <t>pagó la cuenta</t>
+  </si>
+  <si>
+    <t>pago la cuenta</t>
+  </si>
+  <si>
+    <t>cambia la clave</t>
+  </si>
+  <si>
+    <t>cambiá la clave</t>
+  </si>
+  <si>
+    <t>cambió la clave</t>
+  </si>
+  <si>
+    <t>cambio la clave</t>
+  </si>
+  <si>
+    <t>lanza</t>
+  </si>
+  <si>
+    <t>lanzá</t>
+  </si>
+  <si>
+    <t>lanzó</t>
+  </si>
+  <si>
+    <t>lanzo</t>
+  </si>
+  <si>
+    <t>Masc. O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fem.  O </t>
+  </si>
+  <si>
+    <t>La mujer busca la llave</t>
+  </si>
+  <si>
+    <t>La mujer buscá la llave</t>
+  </si>
+  <si>
+    <t>La mujer buscó la llave</t>
+  </si>
+  <si>
+    <t>La mujer busco la llave</t>
+  </si>
+  <si>
+    <t>La madre limpia el suelo</t>
+  </si>
+  <si>
+    <t>La madre limpiá el suelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La madre limpió el suelo </t>
+  </si>
+  <si>
+    <t>La madre limpo el suelo</t>
+  </si>
+  <si>
+    <t>El hombre planta el árbol</t>
+  </si>
+  <si>
+    <t>El hombre plantó el árbol</t>
   </si>
 </sst>
 </file>
@@ -4174,7 +4249,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="40">
@@ -4196,13 +4271,13 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D22" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="E22" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="H22" s="36"/>
       <c r="I22" s="1"/>
@@ -4221,7 +4296,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="H24" s="36"/>
       <c r="I24" s="1"/>
@@ -4327,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5B2C7-486A-0647-B4D4-425ADAC8850E}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A16" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4493,7 +4568,7 @@
         <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4645,7 +4720,7 @@
         <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,16 +4777,16 @@
         <v>22</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
@@ -5074,7 +5149,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="D22" s="26">
         <v>1</v>
@@ -5416,7 +5491,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D43" s="25" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="E43" s="45">
         <f>32/40</f>
@@ -5438,7 +5513,7 @@
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="D44" s="25" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E44" s="40">
         <f>14/18</f>
@@ -5460,16 +5535,16 @@
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="E45" s="10" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="L45" s="1"/>
     </row>
@@ -5487,7 +5562,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>2</v>
@@ -5499,7 +5574,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>3</v>
@@ -5518,11 +5593,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E97C047-CE53-BB4A-95C5-BA7E9B7E6464}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
@@ -5531,8 +5609,12 @@
       <c r="B1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="48" t="s">
+        <v>941</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>942</v>
+      </c>
       <c r="E1" s="48" t="s">
         <v>289</v>
       </c>
@@ -5547,9 +5629,11 @@
         <v>129</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>799</v>
-      </c>
-      <c r="C2" s="17"/>
+        <v>800</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17">
         <v>1</v>
@@ -5564,7 +5648,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>800</v>
+        <v>652</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -5579,7 +5663,7 @@
         <v>131</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>801</v>
+        <v>653</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -5594,7 +5678,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>802</v>
+        <v>654</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -5609,12 +5693,16 @@
         <v>133</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>792</v>
+        <v>943</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
@@ -5624,7 +5712,7 @@
         <v>134</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>793</v>
+        <v>944</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -5639,7 +5727,7 @@
         <v>135</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>794</v>
+        <v>945</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -5654,7 +5742,7 @@
         <v>136</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>795</v>
+        <v>946</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -5670,11 +5758,15 @@
         <v>137</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>803</v>
+        <v>947</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
@@ -5686,7 +5778,7 @@
         <v>138</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>804</v>
+        <v>948</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -5702,7 +5794,7 @@
         <v>139</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>805</v>
+        <v>949</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -5718,7 +5810,7 @@
         <v>140</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>806</v>
+        <v>950</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5734,11 +5826,15 @@
         <v>141</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="C14" s="17"/>
+        <v>951</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -5750,7 +5846,7 @@
         <v>142</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>809</v>
+        <v>659</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -5766,7 +5862,7 @@
         <v>143</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>808</v>
+        <v>952</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -5782,7 +5878,7 @@
         <v>144</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>810</v>
+        <v>660</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -5798,7 +5894,7 @@
         <v>145</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -5814,7 +5910,7 @@
         <v>146</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -5830,7 +5926,7 @@
         <v>147</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -5846,7 +5942,7 @@
         <v>148</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5862,7 +5958,7 @@
         <v>149</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5878,7 +5974,7 @@
         <v>150</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5894,7 +5990,7 @@
         <v>151</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5910,7 +6006,7 @@
         <v>152</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5926,7 +6022,7 @@
         <v>153</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5942,7 +6038,7 @@
         <v>154</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5958,7 +6054,7 @@
         <v>155</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -5974,7 +6070,7 @@
         <v>156</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -5990,7 +6086,7 @@
         <v>157</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -6006,7 +6102,7 @@
         <v>158</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -6022,7 +6118,7 @@
         <v>159</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -6038,7 +6134,7 @@
         <v>160</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -6054,7 +6150,7 @@
         <v>161</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -6070,7 +6166,7 @@
         <v>162</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -6086,7 +6182,7 @@
         <v>163</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -6102,7 +6198,7 @@
         <v>164</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -6118,7 +6214,7 @@
         <v>165</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -6134,7 +6230,7 @@
         <v>166</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -6150,7 +6246,7 @@
         <v>167</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -6166,7 +6262,7 @@
         <v>168</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -6181,7 +6277,7 @@
         <v>169</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -6195,7 +6291,7 @@
         <v>170</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -6209,7 +6305,7 @@
         <v>171</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -6223,7 +6319,7 @@
         <v>172</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -6237,7 +6333,7 @@
         <v>173</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -6251,7 +6347,7 @@
         <v>174</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -6265,7 +6361,7 @@
         <v>175</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -6279,7 +6375,7 @@
         <v>176</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -6292,7 +6388,7 @@
         <v>177</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -6305,7 +6401,7 @@
         <v>178</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -6318,7 +6414,7 @@
         <v>179</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -6331,7 +6427,7 @@
         <v>180</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -6344,7 +6440,7 @@
         <v>181</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -6357,7 +6453,7 @@
         <v>182</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -6370,7 +6466,7 @@
         <v>183</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -6383,7 +6479,7 @@
         <v>184</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -6396,7 +6492,7 @@
         <v>185</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -6409,7 +6505,7 @@
         <v>186</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -6422,7 +6518,7 @@
         <v>187</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -6435,7 +6531,7 @@
         <v>188</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -6448,7 +6544,7 @@
         <v>189</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -6461,7 +6557,7 @@
         <v>190</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -6474,7 +6570,7 @@
         <v>191</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -6487,7 +6583,7 @@
         <v>192</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -6500,7 +6596,7 @@
         <v>193</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -6513,7 +6609,7 @@
         <v>194</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -6526,7 +6622,7 @@
         <v>195</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -6539,7 +6635,7 @@
         <v>196</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -6552,7 +6648,7 @@
         <v>197</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -6565,7 +6661,7 @@
         <v>198</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -6578,7 +6674,7 @@
         <v>199</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -6591,7 +6687,7 @@
         <v>200</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -6604,7 +6700,7 @@
         <v>201</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -6616,7 +6712,7 @@
         <v>202</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -6628,7 +6724,7 @@
         <v>203</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -6640,7 +6736,7 @@
         <v>204</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -6652,7 +6748,7 @@
         <v>205</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -6664,7 +6760,7 @@
         <v>206</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -6676,7 +6772,7 @@
         <v>207</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -6690,7 +6786,7 @@
         <v>208</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -6704,7 +6800,7 @@
         <v>209</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -6718,7 +6814,7 @@
         <v>210</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -6732,7 +6828,7 @@
         <v>211</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -6746,7 +6842,7 @@
         <v>212</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -6760,7 +6856,7 @@
         <v>213</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -6774,7 +6870,7 @@
         <v>214</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -6788,7 +6884,7 @@
         <v>215</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -6802,7 +6898,7 @@
         <v>216</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -6816,7 +6912,7 @@
         <v>217</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -6830,7 +6926,7 @@
         <v>218</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -6844,7 +6940,7 @@
         <v>219</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -6858,7 +6954,7 @@
         <v>220</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -6872,115 +6968,91 @@
         <v>221</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
-      <c r="I94" s="26">
-        <v>35</v>
-      </c>
-      <c r="J94" s="26" t="s">
-        <v>124</v>
-      </c>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
         <v>222</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
-      <c r="I95" s="26">
-        <v>36</v>
-      </c>
-      <c r="J95" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
         <v>223</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
-      <c r="I96" s="26">
-        <v>37</v>
-      </c>
-      <c r="J96" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>224</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
-      <c r="I97" s="26">
-        <v>38</v>
-      </c>
-      <c r="J97" s="26" t="s">
-        <v>127</v>
-      </c>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
         <v>225</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
-      <c r="I98" s="26">
-        <v>39</v>
-      </c>
-      <c r="J98" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>226</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
-      <c r="I99" s="26">
-        <v>40</v>
-      </c>
-      <c r="J99" s="26" t="s">
-        <v>20</v>
-      </c>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
         <v>227</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -6992,7 +7064,7 @@
         <v>228</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -7004,7 +7076,7 @@
         <v>229</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -7016,7 +7088,7 @@
         <v>230</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -7028,7 +7100,7 @@
         <v>231</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -7040,7 +7112,7 @@
         <v>232</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -7052,7 +7124,7 @@
         <v>233</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -7064,7 +7136,7 @@
         <v>234</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -7076,7 +7148,7 @@
         <v>235</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -7088,7 +7160,7 @@
         <v>236</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -7100,7 +7172,7 @@
         <v>237</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -7112,7 +7184,7 @@
         <v>238</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -7124,7 +7196,7 @@
         <v>239</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -7136,7 +7208,7 @@
         <v>240</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -7148,7 +7220,7 @@
         <v>241</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -7160,7 +7232,7 @@
         <v>242</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -7172,7 +7244,7 @@
         <v>243</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -7184,7 +7256,7 @@
         <v>244</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -7196,7 +7268,7 @@
         <v>245</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -7208,7 +7280,7 @@
         <v>246</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -7220,7 +7292,7 @@
         <v>247</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -7232,7 +7304,7 @@
         <v>248</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -7244,7 +7316,7 @@
         <v>249</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -7256,7 +7328,7 @@
         <v>250</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -7268,7 +7340,7 @@
         <v>251</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -7280,7 +7352,7 @@
         <v>252</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -7292,7 +7364,7 @@
         <v>253</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -7304,7 +7376,7 @@
         <v>254</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -7316,198 +7388,244 @@
         <v>255</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
         <v>256</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>257</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
         <v>258</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
       <c r="E132" s="17"/>
       <c r="F132" s="17"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
         <v>260</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
       <c r="E133" s="17"/>
       <c r="F133" s="17"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
       <c r="F134" s="17"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
         <v>262</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
       <c r="F135" s="17"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
         <v>263</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B139" s="17"/>
+      <c r="B139" s="17" t="s">
+        <v>918</v>
+      </c>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B140" s="17"/>
+      <c r="B140" s="17" t="s">
+        <v>920</v>
+      </c>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I140" s="26">
+        <v>36</v>
+      </c>
+      <c r="J140" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B141" s="17"/>
+      <c r="B141" s="17" t="s">
+        <v>919</v>
+      </c>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I141" s="26">
+        <v>37</v>
+      </c>
+      <c r="J141" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B142" s="17"/>
+      <c r="B142" s="17" t="s">
+        <v>921</v>
+      </c>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I142" s="26">
+        <v>38</v>
+      </c>
+      <c r="J142" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B143" s="17"/>
+      <c r="B143" s="17" t="s">
+        <v>922</v>
+      </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I143" s="26">
+        <v>39</v>
+      </c>
+      <c r="J143" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B144" s="17"/>
+      <c r="B144" s="17" t="s">
+        <v>923</v>
+      </c>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
       <c r="F144" s="17"/>
+      <c r="I144" s="26">
+        <v>40</v>
+      </c>
+      <c r="J144" s="26" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="B145" s="17"/>
+      <c r="B145" s="17" t="s">
+        <v>924</v>
+      </c>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
       <c r="E145" s="17"/>
@@ -7517,7 +7635,9 @@
       <c r="A146" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B146" s="17"/>
+      <c r="B146" s="17" t="s">
+        <v>925</v>
+      </c>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
@@ -7527,7 +7647,9 @@
       <c r="A147" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="17"/>
+      <c r="B147" s="17" t="s">
+        <v>926</v>
+      </c>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
@@ -7537,7 +7659,9 @@
       <c r="A148" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B148" s="17"/>
+      <c r="B148" s="17" t="s">
+        <v>927</v>
+      </c>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
@@ -7547,7 +7671,9 @@
       <c r="A149" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B149" s="17"/>
+      <c r="B149" s="17" t="s">
+        <v>928</v>
+      </c>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
@@ -7557,7 +7683,9 @@
       <c r="A150" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B150" s="17"/>
+      <c r="B150" s="17" t="s">
+        <v>929</v>
+      </c>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
@@ -7567,7 +7695,9 @@
       <c r="A151" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B151" s="17"/>
+      <c r="B151" s="17" t="s">
+        <v>930</v>
+      </c>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
@@ -7577,7 +7707,9 @@
       <c r="A152" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B152" s="17"/>
+      <c r="B152" s="17" t="s">
+        <v>931</v>
+      </c>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
@@ -7587,7 +7719,9 @@
       <c r="A153" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B153" s="17"/>
+      <c r="B153" s="17" t="s">
+        <v>932</v>
+      </c>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
@@ -7597,7 +7731,9 @@
       <c r="A154" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B154" s="17"/>
+      <c r="B154" s="17" t="s">
+        <v>933</v>
+      </c>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
@@ -7607,7 +7743,9 @@
       <c r="A155" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B155" s="17"/>
+      <c r="B155" s="17" t="s">
+        <v>934</v>
+      </c>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
       <c r="E155" s="17"/>
@@ -7617,7 +7755,9 @@
       <c r="A156" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B156" s="17"/>
+      <c r="B156" s="17" t="s">
+        <v>935</v>
+      </c>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
@@ -7627,7 +7767,9 @@
       <c r="A157" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="B157" s="17"/>
+      <c r="B157" s="17" t="s">
+        <v>936</v>
+      </c>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
       <c r="E157" s="17"/>
@@ -7637,7 +7779,9 @@
       <c r="A158" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B158" s="17"/>
+      <c r="B158" s="17" t="s">
+        <v>937</v>
+      </c>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
@@ -7647,7 +7791,9 @@
       <c r="A159" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="B159" s="17"/>
+      <c r="B159" s="17" t="s">
+        <v>938</v>
+      </c>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
@@ -7657,7 +7803,9 @@
       <c r="A160" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="B160" s="17"/>
+      <c r="B160" s="17" t="s">
+        <v>939</v>
+      </c>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
@@ -7667,7 +7815,9 @@
       <c r="A161" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B161" s="17"/>
+      <c r="B161" s="17" t="s">
+        <v>940</v>
+      </c>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
@@ -7682,16 +7832,16 @@
       </c>
       <c r="E162" s="48">
         <f>SUM(E2:E161)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F162" s="49">
         <f>SUM(F2:F161)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="39" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B164" s="38"/>
       <c r="C164" s="38"/>
@@ -7709,23 +7859,23 @@
         <v>28</v>
       </c>
       <c r="B166" s="37" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="37" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B167" s="37" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="37" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B168" s="37" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -7733,7 +7883,7 @@
         <v>30</v>
       </c>
       <c r="B169" s="37" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -7741,12 +7891,12 @@
         <v>32</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="37" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B171" s="37" t="s">
         <v>29</v>
@@ -7754,10 +7904,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="37" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -7773,44 +7923,44 @@
         <v>35</v>
       </c>
       <c r="B174" s="37" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="37" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B175" s="37" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="37" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B176" s="37" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="37" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B177" s="37" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="37" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="37" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B179" s="37" t="s">
         <v>33</v>
@@ -7818,10 +7968,10 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="37" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -7855,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>308</v>
@@ -7875,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C2" t="s">
         <v>303</v>
@@ -7892,7 +8042,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
         <v>302</v>
@@ -7909,7 +8059,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
         <v>304</v>
@@ -7929,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C5" t="s">
         <v>305</v>
@@ -7943,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C6" t="s">
         <v>306</v>
@@ -7955,7 +8105,7 @@
         <v>296</v>
       </c>
       <c r="F6" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -7963,7 +8113,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D7" t="s">
         <v>315</v>
@@ -7980,7 +8130,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="E8" t="s">
         <v>297</v>
@@ -7995,7 +8145,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D9" t="s">
         <v>316</v>
@@ -8013,7 +8163,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -8021,7 +8171,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -8029,7 +8179,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -8042,10 +8192,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D13" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
@@ -8055,10 +8205,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="D14" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26" t="s">
@@ -8070,10 +8220,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D15" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="26" t="s">
@@ -8085,10 +8235,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D16" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="K16" t="s">
         <v>315</v>
@@ -8103,11 +8253,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="L17" s="26"/>
       <c r="M17" s="26" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -8115,7 +8265,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="K18" t="s">
         <v>316</v>
@@ -8128,7 +8278,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
@@ -8141,7 +8291,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
@@ -8154,7 +8304,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -8167,7 +8317,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
@@ -8180,7 +8330,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
@@ -8193,7 +8343,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
@@ -8206,7 +8356,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -8218,7 +8368,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -8226,7 +8376,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -8234,7 +8384,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -8242,7 +8392,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -8250,7 +8400,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -8258,7 +8408,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -8266,7 +8416,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -8274,7 +8424,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -8378,7 +8528,7 @@
         <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -8387,7 +8537,7 @@
         <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -8449,7 +8599,7 @@
         <v>321</v>
       </c>
       <c r="B14" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -8457,7 +8607,7 @@
         <v>322</v>
       </c>
       <c r="B15" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -8518,7 +8668,7 @@
         <v>325</v>
       </c>
       <c r="B22" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="F22" s="11"/>
     </row>
@@ -8527,7 +8677,7 @@
         <v>326</v>
       </c>
       <c r="B23" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -8588,7 +8738,7 @@
         <v>329</v>
       </c>
       <c r="B30" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8596,7 +8746,7 @@
         <v>330</v>
       </c>
       <c r="B31" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8652,7 +8802,7 @@
         <v>333</v>
       </c>
       <c r="B38" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8660,7 +8810,7 @@
         <v>334</v>
       </c>
       <c r="B39" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -8716,7 +8866,7 @@
         <v>337</v>
       </c>
       <c r="B46" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -8724,7 +8874,7 @@
         <v>338</v>
       </c>
       <c r="B47" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -8780,7 +8930,7 @@
         <v>341</v>
       </c>
       <c r="B54" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -8788,7 +8938,7 @@
         <v>342</v>
       </c>
       <c r="B55" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -8844,7 +8994,7 @@
         <v>345</v>
       </c>
       <c r="B62" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -8852,7 +9002,7 @@
         <v>346</v>
       </c>
       <c r="B63" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -8908,7 +9058,7 @@
         <v>349</v>
       </c>
       <c r="B70" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -8916,7 +9066,7 @@
         <v>350</v>
       </c>
       <c r="B71" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -8972,7 +9122,7 @@
         <v>353</v>
       </c>
       <c r="B78" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -8980,7 +9130,7 @@
         <v>354</v>
       </c>
       <c r="B79" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -9036,7 +9186,7 @@
         <v>357</v>
       </c>
       <c r="B86" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -9044,7 +9194,7 @@
         <v>358</v>
       </c>
       <c r="B87" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -9100,7 +9250,7 @@
         <v>361</v>
       </c>
       <c r="B94" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -9108,7 +9258,7 @@
         <v>362</v>
       </c>
       <c r="B95" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -9164,7 +9314,7 @@
         <v>365</v>
       </c>
       <c r="B102" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -9172,7 +9322,7 @@
         <v>366</v>
       </c>
       <c r="B103" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -9228,7 +9378,7 @@
         <v>369</v>
       </c>
       <c r="B110" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -9236,7 +9386,7 @@
         <v>370</v>
       </c>
       <c r="B111" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -9292,7 +9442,7 @@
         <v>373</v>
       </c>
       <c r="B118" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -9300,7 +9450,7 @@
         <v>374</v>
       </c>
       <c r="B119" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -9356,7 +9506,7 @@
         <v>377</v>
       </c>
       <c r="B126" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -9364,7 +9514,7 @@
         <v>378</v>
       </c>
       <c r="B127" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -9420,7 +9570,7 @@
         <v>381</v>
       </c>
       <c r="B134" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -9428,7 +9578,7 @@
         <v>382</v>
       </c>
       <c r="B135" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -9484,7 +9634,7 @@
         <v>385</v>
       </c>
       <c r="B142" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -9492,7 +9642,7 @@
         <v>386</v>
       </c>
       <c r="B143" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -9548,7 +9698,7 @@
         <v>389</v>
       </c>
       <c r="B150" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -9556,7 +9706,7 @@
         <v>390</v>
       </c>
       <c r="B151" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -9612,7 +9762,7 @@
         <v>393</v>
       </c>
       <c r="B158" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -9620,7 +9770,7 @@
         <v>394</v>
       </c>
       <c r="B159" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -9676,7 +9826,7 @@
         <v>397</v>
       </c>
       <c r="B166" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -9684,7 +9834,7 @@
         <v>398</v>
       </c>
       <c r="B167" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -9740,7 +9890,7 @@
         <v>401</v>
       </c>
       <c r="B174" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -9748,7 +9898,7 @@
         <v>402</v>
       </c>
       <c r="B175" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -9804,7 +9954,7 @@
         <v>405</v>
       </c>
       <c r="B182" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -9812,7 +9962,7 @@
         <v>406</v>
       </c>
       <c r="B183" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -9868,7 +10018,7 @@
         <v>409</v>
       </c>
       <c r="B190" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -9876,7 +10026,7 @@
         <v>410</v>
       </c>
       <c r="B191" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -9932,7 +10082,7 @@
         <v>413</v>
       </c>
       <c r="B198" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -9940,7 +10090,7 @@
         <v>414</v>
       </c>
       <c r="B199" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -9996,7 +10146,7 @@
         <v>417</v>
       </c>
       <c r="B206" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -10004,7 +10154,7 @@
         <v>418</v>
       </c>
       <c r="B207" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -10060,7 +10210,7 @@
         <v>421</v>
       </c>
       <c r="B214" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -10068,7 +10218,7 @@
         <v>422</v>
       </c>
       <c r="B215" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -10124,7 +10274,7 @@
         <v>425</v>
       </c>
       <c r="B222" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -10132,7 +10282,7 @@
         <v>426</v>
       </c>
       <c r="B223" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -10188,7 +10338,7 @@
         <v>429</v>
       </c>
       <c r="B230" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -10196,7 +10346,7 @@
         <v>430</v>
       </c>
       <c r="B231" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -10252,7 +10402,7 @@
         <v>433</v>
       </c>
       <c r="B238" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -10260,7 +10410,7 @@
         <v>434</v>
       </c>
       <c r="B239" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -10316,7 +10466,7 @@
         <v>437</v>
       </c>
       <c r="B246" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -10324,7 +10474,7 @@
         <v>438</v>
       </c>
       <c r="B247" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -10380,7 +10530,7 @@
         <v>441</v>
       </c>
       <c r="B254" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -10388,7 +10538,7 @@
         <v>442</v>
       </c>
       <c r="B255" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
